--- a/数据整理/stocks/A股/创业板/300058-蓝色光标.xlsx
+++ b/数据整理/stocks/A股/创业板/300058-蓝色光标.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.84</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.61</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.58</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.74</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.34</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>91.74</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.34</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005585</t>
+          <t>000061</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河文体娱乐主题灵活配置混合</t>
+          <t>华夏盛世混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>72.70</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6633</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000061</t>
+          <t>005585</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏盛世混合</t>
+          <t>银河文体娱乐主题灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -716,15 +796,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>89.84</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.11</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>89.84</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.11</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300058-蓝色光标.xlsx
+++ b/数据整理/stocks/A股/创业板/300058-蓝色光标.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6248</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300058-蓝色光标.xlsx
+++ b/数据整理/stocks/A股/创业板/300058-蓝色光标.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1244</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5810</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1689</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300058-蓝色光标.xlsx
+++ b/数据整理/stocks/A股/创业板/300058-蓝色光标.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300058-蓝色光标.xlsx
+++ b/数据整理/stocks/A股/创业板/300058-蓝色光标.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.87</v>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>112.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8911</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1224,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.62</v>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1042</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1262,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6899999999999999</v>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>41.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7072</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1300,1139 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5904</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4412</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4192</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4022</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3566</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3365</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2142</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>29.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>41.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300058-蓝色光标.xlsx
+++ b/数据整理/stocks/A股/创业板/300058-蓝色光标.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2331,7 +2332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2342,17 +2343,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2362,14 +2383,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.96</v>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7438</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2378,14 +2421,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.87</v>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9629</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2394,14 +2459,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.62</v>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2938</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2410,14 +2497,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6899999999999999</v>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2426,13 +2535,737 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300058-蓝色光标.xlsx
+++ b/数据整理/stocks/A股/创业板/300058-蓝色光标.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3148,7 +3149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3159,17 +3160,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3179,14 +3200,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.26</v>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7396</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3195,14 +3238,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.96</v>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2532</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3211,14 +3276,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.87</v>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3227,14 +3314,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.62</v>
+          <t>210009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰核心资源混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3243,14 +3352,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6899999999999999</v>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3259,13 +3390,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300058-蓝色光标.xlsx
+++ b/数据整理/stocks/A股/创业板/300058-蓝色光标.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>2.48</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>6.26</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>10.96</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>1.87</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.62</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -600,6 +617,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3294</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015395</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015675</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -997,7 +1374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1813,7 +2190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3009,7 +3386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3179,7 +3556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3273,7 +3650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3481,7 +3858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300058-蓝色光标.xlsx
+++ b/数据整理/stocks/A股/创业板/300058-蓝色光标.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>2.48</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>6.26</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>10.96</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>1.87</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.62</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -616,7 +633,651 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2706</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015395</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015675</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -976,7 +1637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1374,7 +2035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2190,7 +2851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3386,7 +4047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3556,7 +4217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3650,7 +4311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3856,212 +4517,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006682</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0428</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008072</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城创业板综指增强</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0267</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008112</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008113</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>